--- a/dummyData/testSStock.xlsx
+++ b/dummyData/testSStock.xlsx
@@ -19,40 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>M-250508-002</t>
-  </si>
-  <si>
-    <t>M-250508-001</t>
-  </si>
-  <si>
-    <t>M-250508-007</t>
-  </si>
-  <si>
-    <t>M-250508-000</t>
-  </si>
-  <si>
-    <t>M-250508-004</t>
-  </si>
-  <si>
-    <t>M-250508-006</t>
-  </si>
-  <si>
-    <t>M-250508-005</t>
-  </si>
-  <si>
-    <t>M-250508-009</t>
-  </si>
-  <si>
-    <t>M-250508-003</t>
-  </si>
-  <si>
-    <t>M-250508-008</t>
-  </si>
-  <si>
-    <t>M-250508-010</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>※현재 수량</t>
   </si>
@@ -67,9 +34,6 @@
   </si>
   <si>
     <t>※부품 타입</t>
-  </si>
-  <si>
-    <t>※자재 코드</t>
   </si>
   <si>
     <t>자재 이름</t>
@@ -710,298 +674,260 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1450</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2200</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1800</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1700</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>600</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>800</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4">
-        <v>1450</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>2500</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>2200</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>1800</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>1700</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1500</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>500</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>600</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>800</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>1500</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
